--- a/10b.xlsx
+++ b/10b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475799F9-9323-41D3-9CFD-2A1DC750087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E2EE6-FB35-4B4F-865A-BBA19C72D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3000" windowWidth="22065" windowHeight="16200" activeTab="1" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="2970" yWindow="2205" windowWidth="28230" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入3" sheetId="10" r:id="rId1"/>
@@ -3425,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA0646-D4DB-48D0-A781-C48C0668EC20}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7668,7 +7668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A690BB-04C9-46F9-A5B1-1CF2FFB456BF}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>

--- a/10b.xlsx
+++ b/10b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E2EE6-FB35-4B4F-865A-BBA19C72D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7DC29-B849-4CC9-B730-87147AEC5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2205" windowWidth="28230" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="1132" yWindow="368" windowWidth="28231" windowHeight="15097" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入3" sheetId="10" r:id="rId1"/>
@@ -3565,85 +3565,85 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>12.8</v>
+        <v>47.1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>32.6</v>
+        <v>12.8</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>35.1</v>
+        <v>32.6</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>13.8</v>
+        <v>42.6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>14.4</v>
+        <v>35.1</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>7.9</v>
+        <v>13.8</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>7</v>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>7.3</v>
+        <v>14.4</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -3670,25 +3670,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>14.5</v>
+        <v>44.8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>26</v>
+        <v>7.3</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
@@ -3715,43 +3715,43 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>32.299999999999997</v>
+        <v>14.5</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>27.7</v>
+        <v>41.9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>48.9</v>
+        <v>42.8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>9</v>
@@ -3760,10 +3760,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>24.9</v>
+        <v>10.4</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
@@ -3775,40 +3775,40 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>55.7</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>30.4</v>
+        <v>27.7</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>80</v>
+        <v>48.9</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
@@ -3835,58 +3835,58 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A29">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>28.7</v>
+        <v>43.6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A30">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>14.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A31">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>75.5</v>
+        <v>24.9</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>32</v>
+        <v>40.9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>9</v>
@@ -3895,69 +3895,69 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>25.9</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>20.3</v>
+        <v>55.7</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>45.1</v>
+        <v>30.4</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>22.9</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A37">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>31.4</v>
+        <v>28.7</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
@@ -3969,25 +3969,25 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>28.9</v>
+        <v>14.2</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>46.8</v>
+        <v>75.5</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>32.6</v>
+        <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>7</v>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>21.5</v>
+        <v>25.9</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>7</v>
@@ -4029,25 +4029,25 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>13.3</v>
+        <v>20.3</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>31.5</v>
+        <v>45.1</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A44">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>11.9</v>
+        <v>22.9</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>7</v>
@@ -4074,25 +4074,25 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A45">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>35</v>
+        <v>31.4</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A46">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>18</v>
+        <v>28.9</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>7</v>
@@ -4104,40 +4104,40 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A47">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
-        <v>20</v>
+        <v>46.8</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A48">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>23.5</v>
+        <v>32.6</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A49">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
-        <v>13.3</v>
+        <v>21.5</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>7</v>
@@ -4149,40 +4149,40 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A50">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
-        <v>24.9</v>
+        <v>13.3</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A51">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
-        <v>19.600000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A52">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
-        <v>14.5</v>
+        <v>11.9</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>7</v>
@@ -4194,175 +4194,175 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A53">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
-        <v>19.399999999999999</v>
+        <v>35</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A54">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
-        <v>16.899999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A55">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <v>13.8</v>
+        <v>33.1</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A56">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A57">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
-        <v>47.1</v>
+        <v>31.7</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B58" s="1">
-        <v>42.6</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A59">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>44.8</v>
+        <v>27</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A60">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>41.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A61">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>42.8</v>
+        <v>23.5</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A62">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>43.6</v>
+        <v>27.1</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A63">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>40.200000000000003</v>
+        <v>13.3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A64">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>40.9</v>
+        <v>1600</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -4373,40 +4373,40 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A65">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>48.3</v>
+        <v>31</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A66">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>33.1</v>
+        <v>31.3</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A67">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>31.7</v>
+        <v>68.7</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -4418,28 +4418,28 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A68">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>27</v>
+        <v>36.9</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A69">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
-        <v>19.899999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>8</v>
@@ -4448,37 +4448,37 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A70">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
-        <v>27.1</v>
+        <v>42.7</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A71">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
-        <v>1600</v>
+        <v>24.8</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A72">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
         <v>31</v>
@@ -4487,31 +4487,31 @@
         <v>5</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A73">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
-        <v>31.3</v>
+        <v>36</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A74">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
-        <v>68.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A75">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
-        <v>36.9</v>
+        <v>37.9</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>5</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A76">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
-        <v>42.7</v>
+        <v>31.6</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>5</v>
@@ -4553,28 +4553,28 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A77">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
-        <v>24.8</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A78">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
-        <v>31</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>11</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A79">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
-        <v>36</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A80">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
-        <v>36.799999999999997</v>
+        <v>34.9</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
@@ -4613,40 +4613,40 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A81">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
-        <v>37.9</v>
+        <v>28.7</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A82">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
-        <v>31.6</v>
+        <v>24.9</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A83">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
-        <v>32.200000000000003</v>
+        <v>47.7</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A84">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
-        <v>39.299999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5</v>
@@ -4673,27 +4673,27 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A85">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
-        <v>34.9</v>
+        <v>124</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A86">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
-        <v>28.7</v>
+        <v>14.5</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>8</v>
@@ -4702,25 +4702,25 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A87">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
-        <v>24.9</v>
+        <v>37.6</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A88">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1">
-        <v>47.7</v>
+        <v>31.9</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>5</v>
@@ -4732,70 +4732,70 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A89">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1">
-        <v>38.4</v>
+        <v>22.7</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A90">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1">
-        <v>124</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A91">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1">
-        <v>37.6</v>
+        <v>30.4</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A92">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A93">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
-        <v>22.7</v>
+        <v>23.7</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>5</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A94">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
-        <v>30.4</v>
+        <v>26</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5</v>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A95">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
-        <v>31.4</v>
+        <v>26.5</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5</v>
@@ -4837,25 +4837,25 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A96">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
-        <v>23.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A97">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>5</v>
@@ -4867,13 +4867,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A98">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
-        <v>26.5</v>
+        <v>13.8</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>8</v>
@@ -4882,43 +4882,43 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A99">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
-        <v>23.6</v>
+        <v>42.7</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A100">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1">
-        <v>42.7</v>
+        <v>29.3</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A101">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
-        <v>29.3</v>
+        <v>8</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>8</v>
@@ -7669,7 +7669,7 @@
   <dimension ref="A1:I1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7722,10 +7722,10 @@
       <c r="B4" s="1">
         <v>22.8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
@@ -7749,10 +7749,10 @@
       <c r="B5" s="1">
         <v>39.5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1"/>
@@ -7773,10 +7773,10 @@
       <c r="B6" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
@@ -7797,10 +7797,10 @@
       <c r="B7" s="1">
         <v>37.700000000000003</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
@@ -7824,10 +7824,10 @@
       <c r="B8" s="1">
         <v>32.4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1"/>
@@ -7851,10 +7851,10 @@
       <c r="B9" s="1">
         <v>31.6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1"/>
@@ -7878,10 +7878,10 @@
       <c r="B10" s="1">
         <v>30.1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
@@ -7905,10 +7905,10 @@
       <c r="B11" s="1">
         <v>47.1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1"/>
@@ -7932,10 +7932,10 @@
       <c r="B12" s="1">
         <v>12.8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1"/>
@@ -7956,10 +7956,10 @@
       <c r="B13" s="1">
         <v>32.6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
@@ -7983,10 +7983,10 @@
       <c r="B14" s="1">
         <v>42.6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1"/>
@@ -8007,10 +8007,10 @@
       <c r="B15" s="1">
         <v>35.1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1"/>
@@ -8031,10 +8031,10 @@
       <c r="B16" s="1">
         <v>13.8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1"/>
@@ -8055,10 +8055,10 @@
       <c r="B17" s="1">
         <v>14.4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1"/>
@@ -8079,10 +8079,10 @@
       <c r="B18" s="1">
         <v>44.8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
@@ -8106,10 +8106,10 @@
       <c r="B19" s="1">
         <v>7.9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1"/>
@@ -8133,10 +8133,10 @@
       <c r="B20" s="1">
         <v>7.3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1"/>
@@ -8148,10 +8148,10 @@
       <c r="B21" s="1">
         <v>14.5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1"/>
@@ -8163,10 +8163,10 @@
       <c r="B22" s="1">
         <v>41.9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1"/>
@@ -8178,10 +8178,10 @@
       <c r="B23" s="1">
         <v>42.8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1"/>
@@ -8193,10 +8193,10 @@
       <c r="B24" s="1">
         <v>10.4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1"/>
@@ -8208,10 +8208,10 @@
       <c r="B25" s="1">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1"/>
@@ -8223,10 +8223,10 @@
       <c r="B26" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1"/>
@@ -8238,10 +8238,10 @@
       <c r="B27" s="1">
         <v>27.7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1"/>
@@ -8253,10 +8253,10 @@
       <c r="B28" s="1">
         <v>48.9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1"/>
@@ -8268,10 +8268,10 @@
       <c r="B29" s="1">
         <v>43.6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1"/>
@@ -8283,10 +8283,10 @@
       <c r="B30" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1"/>
@@ -8298,10 +8298,10 @@
       <c r="B31" s="1">
         <v>24.9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="1"/>
@@ -8313,10 +8313,10 @@
       <c r="B32" s="1">
         <v>40.9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1"/>
@@ -8328,10 +8328,10 @@
       <c r="B33" s="1">
         <v>200</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8342,10 +8342,10 @@
       <c r="B34" s="1">
         <v>55.7</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1"/>
@@ -8357,10 +8357,10 @@
       <c r="B35" s="1">
         <v>30.4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1"/>
@@ -8372,10 +8372,10 @@
       <c r="B36" s="1">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1"/>
@@ -8387,10 +8387,10 @@
       <c r="B37" s="1">
         <v>28.7</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="1"/>
@@ -8402,10 +8402,10 @@
       <c r="B38" s="1">
         <v>14.2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="1"/>
@@ -8417,10 +8417,10 @@
       <c r="B39" s="1">
         <v>75.5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1"/>
@@ -8432,10 +8432,10 @@
       <c r="B40" s="1">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1"/>
@@ -8447,10 +8447,10 @@
       <c r="B41" s="1">
         <v>25.9</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="1"/>
@@ -8462,10 +8462,10 @@
       <c r="B42" s="1">
         <v>20.3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="1"/>
@@ -8477,10 +8477,10 @@
       <c r="B43" s="1">
         <v>45.1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1"/>
@@ -8492,10 +8492,10 @@
       <c r="B44" s="1">
         <v>22.9</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="1"/>
@@ -8507,10 +8507,10 @@
       <c r="B45" s="1">
         <v>31.4</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="1"/>
@@ -8522,10 +8522,10 @@
       <c r="B46" s="1">
         <v>28.9</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="1"/>
@@ -8537,10 +8537,10 @@
       <c r="B47" s="1">
         <v>46.8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1"/>
@@ -8552,10 +8552,10 @@
       <c r="B48" s="1">
         <v>32.6</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="1"/>
@@ -8567,10 +8567,10 @@
       <c r="B49" s="1">
         <v>21.5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="1"/>
@@ -8582,10 +8582,10 @@
       <c r="B50" s="1">
         <v>13.3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="1"/>
@@ -8597,10 +8597,10 @@
       <c r="B51" s="1">
         <v>31.5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1"/>
@@ -8612,10 +8612,10 @@
       <c r="B52" s="1">
         <v>11.9</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="1"/>
@@ -8627,10 +8627,10 @@
       <c r="B53" s="1">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1"/>
@@ -8642,10 +8642,10 @@
       <c r="B54" s="1">
         <v>48.3</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1"/>
@@ -8657,10 +8657,10 @@
       <c r="B55" s="1">
         <v>33.1</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1"/>
@@ -8672,10 +8672,10 @@
       <c r="B56" s="1">
         <v>18</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1"/>
@@ -8687,10 +8687,10 @@
       <c r="B57" s="1">
         <v>31.7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1"/>
@@ -8702,10 +8702,10 @@
       <c r="B58" s="1">
         <v>20</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="1"/>
@@ -8717,10 +8717,10 @@
       <c r="B59" s="1">
         <v>27</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="1"/>
@@ -8732,10 +8732,10 @@
       <c r="B60" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="1"/>
@@ -8747,10 +8747,10 @@
       <c r="B61" s="1">
         <v>23.5</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="1"/>
@@ -8762,10 +8762,10 @@
       <c r="B62" s="1">
         <v>27.1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="1"/>
@@ -8777,10 +8777,10 @@
       <c r="B63" s="1">
         <v>13.3</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="1"/>
@@ -8792,10 +8792,10 @@
       <c r="B64" s="1">
         <v>1600</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8806,10 +8806,10 @@
       <c r="B65" s="1">
         <v>31</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1"/>
@@ -8821,10 +8821,10 @@
       <c r="B66" s="1">
         <v>31.3</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
@@ -8836,10 +8836,10 @@
       <c r="B67" s="1">
         <v>68.7</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1"/>
@@ -8851,10 +8851,10 @@
       <c r="B68" s="1">
         <v>36.9</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1"/>
@@ -8866,10 +8866,10 @@
       <c r="B69" s="1">
         <v>24.9</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="1"/>
@@ -8881,10 +8881,10 @@
       <c r="B70" s="1">
         <v>42.7</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1"/>
@@ -8896,10 +8896,10 @@
       <c r="B71" s="1">
         <v>24.8</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1"/>
@@ -8911,10 +8911,10 @@
       <c r="B72" s="1">
         <v>31</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="1"/>
@@ -8926,10 +8926,10 @@
       <c r="B73" s="1">
         <v>36</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1"/>
@@ -8941,10 +8941,10 @@
       <c r="B74" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1"/>
@@ -8956,10 +8956,10 @@
       <c r="B75" s="1">
         <v>37.9</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1"/>
@@ -8971,10 +8971,10 @@
       <c r="B76" s="1">
         <v>31.6</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1"/>
@@ -8986,10 +8986,10 @@
       <c r="B77" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1"/>
@@ -9001,10 +9001,10 @@
       <c r="B78" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="1"/>
@@ -9016,10 +9016,10 @@
       <c r="B79" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1"/>
@@ -9031,10 +9031,10 @@
       <c r="B80" s="1">
         <v>34.9</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1"/>
@@ -9046,10 +9046,10 @@
       <c r="B81" s="1">
         <v>28.7</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1"/>
@@ -9061,10 +9061,10 @@
       <c r="B82" s="1">
         <v>24.9</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="1"/>
@@ -9076,10 +9076,10 @@
       <c r="B83" s="1">
         <v>47.7</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1"/>
@@ -9091,10 +9091,10 @@
       <c r="B84" s="1">
         <v>38.4</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="1"/>
@@ -9106,10 +9106,10 @@
       <c r="B85" s="1">
         <v>124</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9120,10 +9120,10 @@
       <c r="B86" s="1">
         <v>14.5</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="1"/>
@@ -9135,10 +9135,10 @@
       <c r="B87" s="1">
         <v>37.6</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="1"/>
@@ -9150,10 +9150,10 @@
       <c r="B88" s="1">
         <v>31.9</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="1"/>
@@ -9165,10 +9165,10 @@
       <c r="B89" s="1">
         <v>22.7</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1"/>
@@ -9180,10 +9180,10 @@
       <c r="B90" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="1"/>
@@ -9195,10 +9195,10 @@
       <c r="B91" s="1">
         <v>30.4</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="1"/>
@@ -9210,10 +9210,10 @@
       <c r="B92" s="1">
         <v>31.4</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="1"/>
@@ -9225,10 +9225,10 @@
       <c r="B93" s="1">
         <v>23.7</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="1"/>
@@ -9240,10 +9240,10 @@
       <c r="B94" s="1">
         <v>26</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="1"/>
@@ -9255,10 +9255,10 @@
       <c r="B95" s="1">
         <v>26.5</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="1"/>
@@ -9270,10 +9270,10 @@
       <c r="B96" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="1"/>
@@ -9285,10 +9285,10 @@
       <c r="B97" s="1">
         <v>23.6</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="1"/>
@@ -9300,10 +9300,10 @@
       <c r="B98" s="1">
         <v>13.8</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="1"/>
@@ -9315,10 +9315,10 @@
       <c r="B99" s="1">
         <v>42.7</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="1"/>
@@ -9330,10 +9330,10 @@
       <c r="B100" s="1">
         <v>29.3</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="1"/>
@@ -9345,10 +9345,10 @@
       <c r="B101" s="1">
         <v>8</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="1"/>
@@ -9360,10 +9360,10 @@
       <c r="B102" s="1">
         <v>39.9</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="1"/>
@@ -9375,10 +9375,10 @@
       <c r="B103" s="2">
         <v>34.1</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="1"/>
